--- a/Data/Transitions/19261960Translation.xlsx
+++ b/Data/Transitions/19261960Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="873">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>{4.0: 1.0, 496.0: 0.0086292731496847}</t>
   </si>
   <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9833918954386325}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 246.0: 0.02433415633258951, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003076122361619858, 90.0: 0.00531010397249111}</t>
+    <t>{46.0: 0.9985255086994986, 246.0: 0.024310873750907406, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.0030823695638164867, 90.0: 0.005333033966917777}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -139,37 +139,37 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9948036115071597, 172.0: 0.0017460035917788175}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9948093683812907, 172.0: 0.0017369111696087657}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899}</t>
   </si>
   <si>
     <t>{83.0: 1.0}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 492.0: 0.0026304140311953763, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 492.0: 0.0026305364932731274, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9939793120926143, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.03813849167117715, 858.0: 0.11121885973409691, 543.0: 0.0020928699907834555}</t>
+    <t>{90.0: 0.9939563644621425, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038138650843432466, 858.0: 0.10371055410031664, 543.0: 0.0019515818353380745}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.35809669881787276}</t>
+    <t>{97.0: 0.9723237186088487}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.36192246120965527}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 86.0: -1.7825636407842836e-05, 543.0: -8.621046374552892e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 86.0: -1.1964940251659625e-05, 543.0: -5.786626767105416e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 86.0: 0.0008838891141578506, 543.0: 0.000445152667124915}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 86.0: 0.0013519135389946312, 543.0: 0.0006808635924644594, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -253,16 +253,16 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9290859197900155, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.0013996167080487963, 942.0: 0.03103499664687912, 152.0: 0.00010049494100683245}</t>
+    <t>{142.0: 0.9290859197900155, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.001399556030536182, 942.0: 0.031034664688250113, 152.0: 0.00010049578568168579}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,10 +292,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.6765676889513836}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621, 81.0: 0.004688835629826501}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.6794159374403735}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905, 81.0: 0.004688878406681026}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 410.0: 0.014187329728803962, 850.0: 0.0011018966358130604, 277.0: 4.38094565749719e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 410.0: 0.020089868482820475, 850.0: 0.001560332981491432, 277.0: 6.203607287057942e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 410.0: 0.014060740473467732, 850.0: 0.0011036579166127315, 277.0: 4.408673998884865e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 410.0: 0.019924256116666386, 850.0: 0.0015638979353379187, 277.0: 6.247149647233791e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0036495214120508754, 593.0: 0.0009448311481210115, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008612127279709971}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.0052114880479309945}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0036220285020085534, 593.0: 0.000944548826804739, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006119152019756793}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005209810781766919}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 1.0, 578.0: 0.18204845814977974}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.00829306274851835}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.00830192132519551}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,43 +394,43 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.26372514252777124}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.19626745878340957}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.009059553658887049}</t>
-  </si>
-  <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.006742230025165162}</t>
+  </si>
+  <si>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,19 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -478,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.006906251623514751}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9732576667380812, 46.0: 0.001474491300501327, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.542413410543205e-06, 90.0: 7.841263987730523e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.004940095891182265}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9732771378110344, 46.0: 0.001474491300501327, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.5516384580869565e-06, 90.0: 7.875123991313905e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -490,7 +490,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -502,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -520,34 +520,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917951206145526, 887.0: 0.00388533321524782}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914923782252022, 887.0: 0.0038859439078832757}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9983219820353371}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -562,7 +562,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9182157959186211}</t>
+    <t>{277.0: 0.91800401582254}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003326032906596944}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.0033252657802072005}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,16 +583,16 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.09625865064975288, 306.0: 0.00631396710626814, 142.0: 0.0004255640303281357, 788.0: 0.026298366265383358}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.09715510650654188, 306.0: 0.00631396710626814, 142.0: 0.0004255640303281357, 788.0: 0.026172626732387502}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -613,13 +613,13 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.01300180256407217}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013004144539068464}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
@@ -628,7 +628,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -637,31 +637,31 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9936860328937318, 142.0: 0.07048851617965635, 44.0: 7.58045374345196e-05}</t>
+    <t>{306.0: 0.9936860328937318, 142.0: 0.07048851617965635, 44.0: 7.498265547510774e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.4157387671491915e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.418017452439226e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.17636738590185097}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -670,31 +670,31 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.6419033011821272, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{398.0: 1.0, 98.0: 0.6380775387903448, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.017708674968506914, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24571753336152957, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.017708604760049776, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.35005776247073445, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -703,16 +703,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4350812208144059, 907.0: 0.6390746430507862}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.32789516505867994, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -721,7 +721,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -730,46 +730,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 0.998298837538985}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -778,10 +778,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5678115620279767e-06, 172.0: 2.751703539139699e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5498966598894875e-06, 172.0: 2.7060790799364145e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -802,7 +802,7 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9493412936702375}</t>
+    <t>{443.0: 0.9495122956187572}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
@@ -811,13 +811,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -841,16 +841,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -868,19 +868,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976, 277.0: 0.00024443386022058325}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176, 277.0: 0.0002443774832483801}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 5.903870010747374e-05}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 5.9079429396195726e-05}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -895,10 +895,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007025194449887987, 481.0: 1.3057803072405517e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007025194449887987, 481.0: 1.3057803072405517e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -910,16 +910,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -931,16 +931,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.980110380594447}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9800564019401017}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -970,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -988,10 +988,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.7055721343265888, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.7048004079814317, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -1000,13 +1000,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1018,7 +1018,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1027,22 +1027,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0031784310045871716, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.006653743940318745, 171.0: 0.0028147416094494553, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.4346813410695112e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004833238028639742, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004895041072333087, 171.0: 0.0021016812133392445, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.434748134378798e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1057,19 +1057,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011317469689680157}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011333229466893692}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
+    <t>{606.0: 0.9962612248325914}</t>
   </si>
   <si>
     <t>{607.0: 1.0, 276.0: 0.0001938548027527382}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1081,16 +1081,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
   </si>
   <si>
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1099,10 +1099,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009234948281437206, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9993564993564994, 887.0: 0.010765278194472094, 861.0: 0.01582952180875185, 253.0: 2.603539771176291e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009289641903231521, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9993564993564994, 887.0: 0.010609892454100971, 861.0: 0.01584614421955596, 253.0: 2.606273720321704e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1150,25 +1150,25 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9933624952141614, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.972343307325655, 171.0: 0.003417356334268778, 90.0: 0.0007027426709068073, 420.0: 1.0598936004283014e-06, 212.0: 0.007649302086290667}</t>
+    <t>{681.0: 0.972245213144219, 171.0: 0.0034317428918510754, 90.0: 0.0007027264469482878, 420.0: 1.0581612182455979e-06, 212.0: 0.0076493270976099636}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1177,10 +1177,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1192,28 +1192,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.03186984013601441}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.031891826323346785}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20086638316279337}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7970244356957674}</t>
+    <t>{698.0: 0.42963551120276106}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5682398871600458}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1231,10 +1231,10 @@
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24592013398122453}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.2467798910788567}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1255,25 +1255,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.00025003983200685086}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.00024974086224936775}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.048507731692186445}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.04841970093971142}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1315,10 +1315,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.03444090426338947}</t>
@@ -1336,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,34 +1357,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.01832283853376267, 184.0: 0.008221436149102493, 593.0: 0.001243463922487012, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01811161633281786, 184.0: 0.008237802816574552, 593.0: 0.001243129278002249, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.000505985051451829, 172.0: 8.880664555316855e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005002033153683339, 172.0: 8.733419217314788e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.0012346422691787672}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.0012332833854857683}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1393,19 +1393,19 @@
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
-  </si>
-  <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
+  </si>
+  <si>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1414,16 +1414,16 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.3037118039871105e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,25 +1435,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0020619473322330295}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0021321840961913714}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9626070046547287, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.001206332906300768}</t>
+    <t>{857.0: 0.9625864821798541, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.00580675205403181}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700407893163199, 253.0: 0.0011020407719018418, 490.0: 0.032209337000882715}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.674127674658629, 253.0: 0.0011087626227937978, 490.0: 0.032521737688368406}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1489,13 +1489,13 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.9391024709501231, 267.0: 0.007819784458684576, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{887.0: 0.9392499769554238, 267.0: 0.008108317674105804, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1507,64 +1507,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9037413493502472}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9028448934934582}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.9545783908574367, 110.0: 0.13207178973473804}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.2928357183343312, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.9545783908574367, 110.0: 0.13212383277978257}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.29019767916417166, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 0.0002472127224513076}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 0.0002473832681836855}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9306830001112347, 887.0: 0.046246917640156975, 267.0: 0.00038509492676288854}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9318384535536638, 887.0: 0.046254186682591875, 267.0: 0.00039930410069196}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1573,7 +1573,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1591,19 +1591,19 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1612,19 +1612,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9880743598737285}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1633,16 +1633,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9950095691192649, 152.0: 0.07144352847744063}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9949664325195563, 152.0: 0.07144412897087178}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{4.0: 0.9952675646159448, 496.0: 0.004732435384055333}</t>
@@ -1690,7 +1690,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.991930277598451, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8818073171464982, 246.0: 0.060041300048089406, 681.0: 0.02404754195328322, 741.0: 0.008671296648892421, 789.0: 0.011483440045088045, 90.0: 0.013949104158149095}</t>
+    <t>{46.0: 0.881807317146498, 246.0: 0.060041300048089406, 681.0: 0.02404754195328322, 741.0: 0.008671296648892421, 789.0: 0.011483440045088045, 90.0: 0.013949104158149088}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1726,22 +1726,22 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9973266236829689, 271.0: 0.00267337631703098}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699434, 172.0: 0.0014617321300571375}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203815}</t>
   </si>
   <si>
     <t>{82.0: 0.9987155701441416, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680973, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680973, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1753,13 +1753,13 @@
     <t>{89.0: 0.9985642498205313, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9628148011524467, 92.0: 0.004566266646967782, 104.0: 0.021051731640396542, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12813039795525835, 543.0: 0.0016483749352923015}</t>
+    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.962814801152447, 92.0: 0.004334749724608858, 104.0: 0.021283248562755458, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12813039795525835, 543.0: 0.0016483749352923015}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1771,16 +1771,16 @@
     <t>{99.0: 0.9935367114788004, 230.0: 0.006463288521199586}</t>
   </si>
   <si>
-    <t>{107.0: 0.9974495015699066, 86.0: 0.001732084107843088, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.980154611912809, 86.0: 0.0017020513057064291, 543.0: 0.0008042237438054801, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9974548159024921, 86.0: 0.0017320933362511438, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9801598340995815, 86.0: 0.0017020603741020742, 543.0: 0.0007989924886369114, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.2216556771577714}</t>
+    <t>{109.0: 0.7783443228422289, 110.0: 0.2216556771577714}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1792,7 +1792,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273644}</t>
+    <t>{142.0: 0.9847119224187106, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1807,13 +1807,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589453, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1825,7 +1825,7 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9461440454101393, 404.0: 0.006089422657506929, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414902, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065164e-08, 831.0: 0.001466275659824047}</t>
+    <t>{173.0: 0.9461505286921807, 404.0: 0.0060829393754654, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414902, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065164e-08, 831.0: 0.001466275659824047}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457574, 502.0: 0.014713094654242278}</t>
@@ -1834,22 +1834,22 @@
     <t>{175.0: 0.9818551540747692, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.39450451402987413, 410.0: 0.010246425442575776, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9742485155365542, 410.0: 0.025304057170381308, 850.0: 0.0004038046057304886, 277.0: 4.3622687334388525e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971744383835212, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676935, 182.0: 0.003764544832306641}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016118, 171.0: 0.011387480521058113, 593.0: 0.003396785858732227, 778.0: 0.0016846361185983835}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.39350117688896274, 410.0: 0.010220365869510065, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381308, 850.0: 0.0004038046057304886, 277.0: 4.3622687334388525e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971634886605054, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794811}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.0035994764397905767}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9834880171812898, 171.0: 0.01140760291424029, 593.0: 0.003406010339252075, 778.0: 0.0016983695652173906}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
@@ -1864,13 +1864,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.994614809274495, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.8017747931406644, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663015, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1894,16 +1894,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.989309783871717, 409.0: 0.010690216128282592}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310285, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345015, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848484, 409.0: 0.010890151515151512}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1915,10 +1912,10 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047618}</t>
+    <t>{227.0: 0.9975636241524383, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{230.0: 1.0}</t>
@@ -1930,19 +1927,19 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994580161069665, 46.0: 0.000508453576393081, 681.0: 1.3865907519542821e-05, 741.0: 4.9999038422156965e-06, 789.0: 6.621396813892075e-06, 90.0: 8.04310846460373e-06}</t>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994580161069665, 46.0: 0.000508453576393081, 681.0: 1.3865907519542821e-05, 741.0: 4.9999038422156965e-06, 789.0: 6.621396813892075e-06, 90.0: 8.043108464603724e-06}</t>
   </si>
   <si>
     <t>{249.0: 1.0}</t>
@@ -1960,16 +1957,16 @@
     <t>{262.0: 0.9992897727272729, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
   </si>
   <si>
-    <t>{267.0: 0.9888827101863008, 887.0: 0.011117289813699244}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862108, 942.0: 0.0002797618337629159}</t>
+    <t>{267.0: 0.9888822155662895, 887.0: 0.011117784433710615}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -1978,7 +1975,7 @@
     <t>{272.0: 0.8427700348432055, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328581, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937941, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1990,22 +1987,22 @@
     <t>{281.0: 0.9619157530294289, 599.0: 0.009040200038468936, 621.0: 0.02904404693210232}</t>
   </si>
   <si>
-    <t>{282.0: 0.9865400946008592, 182.0: 0.0031506270486254973, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116683, 182.0: 0.0032475495378161924, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.9141291469502109, 311.0: 0.08587085304978907}</t>
   </si>
   <si>
-    <t>{286.0: 0.8163802008795058, 909.0: 0.1310519859684444, 306.0: 0.008026791924281317, 142.0: 0.00031944217412346914, 788.0: 0.044221579053644745}</t>
+    <t>{286.0: 0.8167692971169249, 909.0: 0.13066288973102552, 306.0: 0.008026791924281327, 142.0: 0.00031944217412346914, 788.0: 0.044221579053644745}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219582, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139646, 297.0: 0.013915187919726558, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -2014,22 +2011,22 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9598571373775302, 142.0: 0.04011330634102033, 44.0: 2.955628144900518e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921264e-06}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9598571373775312, 142.0: 0.04011315122533902, 44.0: 2.971139713031199e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879629, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.45727078249987e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392752, 5.0: 0.05300183025736112, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.4878394090991043, 98.0: 0.4209212448061634, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -2050,10 +2047,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05695999999999999}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2068,16 +2065,16 @@
     <t>{414.0: 0.9969001859888406, 759.0: 0.00309981401115933}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864621}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365606, 681.0: 3.5631929296750426e-06}</t>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365614, 681.0: 3.5631929296750426e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2086,7 +2083,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2098,7 +2095,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243409, 783.0: 0.00018839487565938215}</t>
+    <t>{431.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2110,7 +2107,7 @@
     <t>{434.0: 0.6910542610395959, 585.0: 0.3089457389604041}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832951, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{435.0: 0.9862700228832951, 781.0: 0.01372517362616835, 81.0: 4.796463382614096e-06, 172.0: 7.027153842396636e-09}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
@@ -2128,25 +2125,25 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.924004401334336, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380016, 944.0: 0.053501180173092064}</t>
+    <t>{479.0: 0.9235911012950446, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380016, 944.0: 0.053501180173092064}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555474, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555471, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.384469497418607}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458273, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885336}</t>
+    <t>{492.0: 0.9720846452514067, 97.0: 0.011519836235458273, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885336}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2161,7 +2158,7 @@
     <t>{500.0: 0.9993798449612403, 277.0: 0.00062015503875969}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0010743766279124696, 857.0: 0.00010292499676377215}</t>
+    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0010744956289403486, 857.0: 0.00010280599573589325}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2242,13 +2239,13 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881960371890549, 752.0: 0.011803962810944783}</t>
+    <t>{580.0: 0.9884757370533187, 752.0: 0.011524262946681182}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773425}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.0038126361655773425}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2260,13 +2257,13 @@
     <t>{589.0: 0.9635931981692132, 145.0: 0.0014570461665865122, 743.0: 0.022665162591345742, 10.0: 0.012284593072854462}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314700932905032e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130085, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377086, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314700497386952e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
@@ -2275,7 +2272,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225913, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225913, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2308,7 +2305,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0019026021155964606, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025535, 887.0: 0.013046083606791265, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2344,7 +2341,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458071, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.0425170068027211}</t>
@@ -2359,10 +2356,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.060155697098372284}</t>
   </si>
   <si>
-    <t>{695.0: 0.9125755077488517, 857.0: 0.08742449225114805}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905661e-07, 623.0: 8.137321532264154e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.912676587221932, 857.0: 0.08732341277806772}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2377,10 +2374,10 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -2389,13 +2386,13 @@
     <t>{739.0: 0.9994516792323509, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577343}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.003812636165577343}</t>
   </si>
   <si>
     <t>{743.0: 0.9994769518487787, 145.0: 0.00022416349338054984, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
@@ -2404,7 +2401,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894902, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2413,7 +2410,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692525, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692525, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.9984255510571302, 226.0: 0.0015744489428699954}</t>
@@ -2431,7 +2428,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.998972602739726, 493.0: 0.0010273972602739725}</t>
@@ -2440,25 +2437,25 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.0015219813357285332, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031757e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523236, 81.0: 0.0003490904449492977, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.001482998639460586, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031757e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523236, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170026, 500.0: 0.164265129682997}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9990364541512767, 246.0: 0.0009635458487233017}</t>
+    <t>{789.0: 0.9990364541512764, 246.0: 0.0009635458487233017}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2470,19 +2467,19 @@
     <t>{834.0: 0.9681697612732095, 210.0: 0.03162121602224349, 82.0: 4.5723716619645626e-05, 788.0: 0.00016329898792730583}</t>
   </si>
   <si>
-    <t>{835.0: 0.9854027219869262, 836.0: 0.00954570992214585, 756.0: 0.005051568090928225}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646835, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.01905143008418187}</t>
+    <t>{835.0: 0.9850655253365121, 836.0: 0.009882906572559542, 756.0: 0.005051568090928225}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598001, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336175, 486.0: 0.07468196059767147, 980.0: 0.01905143008418187}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807076, 423.0: 0.005179110919292188}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415288, 606.0: 0.00433721875847113}</t>
@@ -2491,31 +2488,31 @@
     <t>{844.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076415, 277.0: 0.09749670619235835}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{851.0: 0.762549468860654, 7.0: 0.23745053113934597}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796245, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455602, 976.0: 0.0026544401544401548}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9933988485562898, 695.0: 0.006601151443710325}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947863}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.848792607179624, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9933341551984092, 695.0: 0.006665844801591099}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101359, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2527,7 +2524,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9963911632258717, 267.0: 0.0030477908020246068, 619.0: 0.0005488344953339268, 861.0: 1.2202561423636924e-05, 253.0: 8.915345993681083e-09}</t>
+    <t>{887.0: 0.9964355150865988, 267.0: 0.0030034606316862275, 619.0: 0.0005487779598127294, 861.0: 1.223738111667056e-05, 253.0: 8.940785702608694e-09}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2554,16 +2551,16 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377268e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249505e-05, 502.0: 2.1081030824663273e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478935}</t>
   </si>
   <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722647}</t>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116222}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2572,19 +2569,19 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.0046679054104800605, 857.0: 0.0004471841035864352}</t>
+    <t>{919.0: 0.9890254656143603, 297.0: 0.005859444871573596, 695.0: 0.0046684224410329005, 857.0: 0.0004466670730335945}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304316, 686.0: 0.013476598069568385}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854247, 887.0: 0.06821723107911948, 267.0: 0.00020866643545552273}</t>
-  </si>
-  <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.7965677625520235e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906858}</t>
+    <t>{922.0: 0.9315741024854247, 887.0: 0.06822026613606025, 267.0: 0.00020563137851477048}</t>
+  </si>
+  <si>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142145, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2593,7 +2590,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.8432666572983654, 702.0: 0.005318616570787546, 249.0: 0.11697890198493717, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.8437739144187199, 702.0: 0.0052967602913918405, 249.0: 0.11649350114397813, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2602,7 +2599,7 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.0032933285286552167, 593.0: 0.0036190543506065148, 85.0: 0.0050890585241730275}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342046, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
     <t>{940.0: 0.9931610942249244, 785.0: 0.006838905775075989}</t>
@@ -2611,16 +2608,16 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680619, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.0009136740974718648}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972913, 848.0: 0.18445892626852103, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382853, 615.0: 0.04586241276171485}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.046231155778894494}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.06212748441651744}</t>
@@ -2629,7 +2626,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601317, 489.0: 0.049172544133844115, 935.0: 0.0004118640060240264}</t>
+    <t>{978.0: 0.9504155918601317, 489.0: 0.04917437168691645, 935.0: 0.0004100364529517132}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
@@ -4426,7 +4423,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4437,7 +4434,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4448,7 +4445,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4459,7 +4456,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4481,7 +4478,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4492,7 +4489,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4503,7 +4500,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4525,7 +4522,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4547,7 +4544,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4602,7 +4599,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4624,7 +4621,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4635,7 +4632,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4646,7 +4643,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4679,7 +4676,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4690,7 +4687,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4723,7 +4720,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4734,7 +4731,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4767,7 +4764,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4833,7 +4830,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4855,7 +4852,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4866,7 +4863,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4888,7 +4885,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4899,7 +4896,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4910,7 +4907,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4921,7 +4918,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4932,7 +4929,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4965,7 +4962,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4976,7 +4973,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4987,7 +4984,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5020,7 +5017,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5031,7 +5028,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5064,7 +5061,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5075,7 +5072,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5097,7 +5094,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5174,7 +5171,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5185,7 +5182,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5196,7 +5193,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5218,7 +5215,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5229,7 +5226,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5262,7 +5259,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5284,7 +5281,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5317,7 +5314,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5328,7 +5325,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5350,7 +5347,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5383,7 +5380,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5394,7 +5391,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5405,7 +5402,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5416,7 +5413,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5427,7 +5424,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5438,7 +5435,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5449,7 +5446,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5460,7 +5457,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5471,7 +5468,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5504,7 +5501,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5515,7 +5512,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5526,7 +5523,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5537,7 +5534,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5559,7 +5556,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5570,7 +5567,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5603,7 +5600,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5614,7 +5611,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5625,7 +5622,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5647,7 +5644,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5658,7 +5655,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5669,7 +5666,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5691,7 +5688,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5702,7 +5699,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5713,7 +5710,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5735,7 +5732,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5746,7 +5743,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5757,7 +5754,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5779,7 +5776,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5790,7 +5787,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5856,7 +5853,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5867,7 +5864,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5878,7 +5875,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5889,7 +5886,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5900,7 +5897,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5922,7 +5919,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5944,7 +5941,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5966,7 +5963,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6010,7 +6007,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6021,7 +6018,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6032,7 +6029,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6043,7 +6040,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6054,7 +6051,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6087,7 +6084,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6109,7 +6106,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6120,7 +6117,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6142,7 +6139,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6153,7 +6150,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6175,7 +6172,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6197,7 +6194,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6208,7 +6205,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6219,7 +6216,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6230,7 +6227,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6241,7 +6238,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6263,7 +6260,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6285,7 +6282,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6296,7 +6293,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6329,7 +6326,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6340,7 +6337,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6351,7 +6348,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6362,7 +6359,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6373,7 +6370,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6395,7 +6392,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6406,7 +6403,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6417,7 +6414,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6428,7 +6425,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6439,7 +6436,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6450,7 +6447,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6461,7 +6458,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6483,7 +6480,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6494,7 +6491,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6516,7 +6513,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6538,7 +6535,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6549,7 +6546,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6560,7 +6557,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6571,7 +6568,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6593,7 +6590,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6615,7 +6612,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6648,7 +6645,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6659,7 +6656,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6692,7 +6689,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6703,7 +6700,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6714,7 +6711,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6725,7 +6722,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6736,7 +6733,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6747,7 +6744,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6802,7 +6799,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6813,7 +6810,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6824,7 +6821,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6835,7 +6832,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6846,7 +6843,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6857,7 +6854,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6868,7 +6865,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6890,7 +6887,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6901,7 +6898,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6923,7 +6920,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6956,7 +6953,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6967,7 +6964,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6989,7 +6986,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -7011,7 +7008,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7055,7 +7052,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7066,7 +7063,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7132,7 +7129,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7143,7 +7140,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7176,7 +7173,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7187,7 +7184,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7209,7 +7206,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7220,7 +7217,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7231,7 +7228,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7242,7 +7239,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7253,7 +7250,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7264,7 +7261,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7275,7 +7272,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7297,7 +7294,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7319,7 +7316,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7330,7 +7327,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7341,7 +7338,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7363,7 +7360,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7374,7 +7371,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7385,7 +7382,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7407,7 +7404,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7440,7 +7437,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7451,7 +7448,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7495,7 +7492,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7528,7 +7525,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7539,7 +7536,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7550,7 +7547,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7561,7 +7558,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7572,7 +7569,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7583,7 +7580,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7594,7 +7591,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7638,7 +7635,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7671,7 +7668,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7704,7 +7701,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7715,7 +7712,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7726,7 +7723,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7737,7 +7734,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7748,7 +7745,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7759,7 +7756,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7770,7 +7767,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7803,7 +7800,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7825,7 +7822,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7847,7 +7844,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7858,7 +7855,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7902,7 +7899,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7924,7 +7921,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7935,7 +7932,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7957,7 +7954,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7979,7 +7976,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7990,7 +7987,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8001,7 +7998,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8012,7 +8009,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -8034,7 +8031,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8045,7 +8042,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -8056,7 +8053,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8067,7 +8064,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8078,7 +8075,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8089,7 +8086,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8111,7 +8108,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8133,7 +8130,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8144,7 +8141,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8188,7 +8185,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8210,7 +8207,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8221,7 +8218,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8232,7 +8229,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8243,7 +8240,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8254,7 +8251,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8287,7 +8284,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8298,7 +8295,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8331,7 +8328,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8342,7 +8339,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8353,7 +8350,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8375,7 +8372,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8386,7 +8383,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8397,7 +8394,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8408,7 +8405,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8452,7 +8449,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8474,7 +8471,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8485,7 +8482,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8496,7 +8493,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8507,7 +8504,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8518,7 +8515,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8529,7 +8526,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8540,7 +8537,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8551,7 +8548,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8573,7 +8570,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8584,7 +8581,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8606,7 +8603,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8617,7 +8614,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8628,7 +8625,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8650,7 +8647,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8661,7 +8658,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8694,7 +8691,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8727,7 +8724,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8738,7 +8735,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8749,7 +8746,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8760,7 +8757,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8771,7 +8768,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8782,7 +8779,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8804,7 +8801,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8815,7 +8812,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8837,7 +8834,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8848,7 +8845,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8859,7 +8856,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8870,7 +8867,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8881,7 +8878,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8914,7 +8911,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8925,7 +8922,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8947,7 +8944,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8958,7 +8955,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8969,7 +8966,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9013,7 +9010,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -9024,7 +9021,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="549" spans="1:3">
